--- a/2_specs/domain/csp_photo.xlsx
+++ b/2_specs/domain/csp_photo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360CloudUI\Cache\1333240703\studio\pony\2_specs\domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360CloudUI\Cache\1333240703\studio\km.pony\2_specs\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="285" windowWidth="20730" windowHeight="11670"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="20730" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Photo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>Label</t>
   </si>
@@ -352,6 +352,10 @@
       </rPr>
       <t>状态</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1112,7 +1116,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L9:L13"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,9 +1271,7 @@
       <c r="L6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="M6" s="16"/>
       <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1324,8 +1326,12 @@
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="L8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="N8" s="37" t="s">
         <v>79</v>
       </c>
@@ -1527,7 +1533,9 @@
       <c r="K15" s="39"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
+      <c r="N15" s="24" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14">

--- a/2_specs/domain/csp_photo.xlsx
+++ b/2_specs/domain/csp_photo.xlsx
@@ -267,10 +267,6 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>UserId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MetaKeywords</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -356,6 +352,10 @@
   </si>
   <si>
     <t>上传日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,9 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1116,7 +1113,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,19 +1123,19 @@
     <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="12" customWidth="1"/>
     <col min="5" max="7" width="4" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="5" style="30" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="2" customWidth="1"/>
     <col min="10" max="12" width="5" style="12" customWidth="1"/>
-    <col min="13" max="13" width="5" style="31" customWidth="1"/>
+    <col min="13" max="13" width="5" style="30" customWidth="1"/>
     <col min="14" max="14" width="43.25" style="13" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="28" t="s">
+      <c r="A1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1156,16 +1153,16 @@
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -1180,7 +1177,7 @@
       <c r="L3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>54</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -1195,24 +1192,24 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="39" t="b">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
-      <c r="N4" s="35"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
@@ -1220,30 +1217,30 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>500</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M5" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
@@ -1251,28 +1248,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39" t="b">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
       <c r="L6" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M6" s="16"/>
-      <c r="N6" s="35"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
@@ -1282,26 +1279,26 @@
       <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="b">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="16"/>
-      <c r="N7" s="35"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
@@ -1309,31 +1306,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="43">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42">
         <v>0</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="37" t="s">
-        <v>79</v>
+      <c r="N8" s="36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1342,28 +1339,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="24"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
@@ -1371,28 +1368,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39" t="b">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="24"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
@@ -1400,30 +1397,30 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="42">
+      <c r="D11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="41">
         <v>400</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="39" t="b">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="16"/>
-      <c r="N11" s="24"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
@@ -1431,28 +1428,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="39" t="b">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="16"/>
-      <c r="N12" s="24"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
@@ -1460,30 +1457,30 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>400</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="39" t="b">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="16" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="16"/>
-      <c r="N13" s="24"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
@@ -1493,23 +1490,23 @@
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
-        <v>66</v>
+      <c r="N14" s="36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1520,21 +1517,21 @@
       <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="24" t="s">
-        <v>85</v>
+      <c r="N15" s="36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1545,20 +1542,20 @@
       <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
@@ -1568,20 +1565,20 @@
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="24"/>
+      <c r="N17" s="36"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
@@ -1589,18 +1586,18 @@
         <v>15</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="15"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="34"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="7"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="24"/>
+      <c r="N18" s="36"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
@@ -1608,18 +1605,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="34"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="24"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
@@ -1627,18 +1624,18 @@
         <v>17</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="24"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
@@ -1646,18 +1643,18 @@
         <v>18</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="34"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="24"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
@@ -1665,18 +1662,18 @@
         <v>19</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="24"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
@@ -1684,18 +1681,18 @@
         <v>20</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="15"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="7"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="24"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
@@ -1703,18 +1700,18 @@
         <v>21</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="15"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="7"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="24"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
@@ -1722,18 +1719,18 @@
         <v>22</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="15"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="7"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="24"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
@@ -1741,18 +1738,18 @@
         <v>23</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="15"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="7"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="24"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
@@ -1760,18 +1757,18 @@
         <v>24</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="34"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="24"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
@@ -1779,18 +1776,18 @@
         <v>25</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="23"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="15"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="34"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="7"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="24"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
@@ -1798,18 +1795,18 @@
         <v>26</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="15"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="7"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="18"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
@@ -1817,37 +1814,37 @@
         <v>27</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="15"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="34"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="7"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="18"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="33"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="27"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
